--- a/Spring 2021 LLO8180 due dates_011121.xlsx
+++ b/Spring 2021 LLO8180 due dates_011121.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lacey\Google Drive\Teaching\Vanderbilt\LLO 8180 - Applied Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCDDD9FB-FDEA-461A-9564-26EB06E35959}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D5AA44-77BB-48DF-937A-AD679223FB60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1365" windowWidth="29040" windowHeight="15840" xr2:uid="{B29FE5CD-F94A-422C-B2B1-CD94BF271377}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B29FE5CD-F94A-422C-B2B1-CD94BF271377}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Week 1</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>due before 5:30pm central</t>
+  </si>
+  <si>
+    <t>**class canceled on 2/17 due to Texas winter storm</t>
   </si>
 </sst>
 </file>
@@ -804,7 +807,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,17 +817,17 @@
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -832,7 +835,7 @@
         <v>44209</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -840,13 +843,13 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="19"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -854,19 +857,19 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="20"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="19"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
@@ -874,13 +877,13 @@
         <v>44230</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="19"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -888,38 +891,41 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="14"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="15"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="13">
-        <v>44244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="15"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="13">
-        <v>44251</v>
+        <v>44258</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -939,7 +945,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="13">
-        <v>44258</v>
+        <v>44265</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -953,7 +959,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="13">
-        <v>44265</v>
+        <v>44272</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -973,7 +979,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="13">
-        <v>44272</v>
+        <v>44279</v>
       </c>
       <c r="D24" s="5"/>
     </row>
@@ -989,7 +995,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="13">
-        <v>44279</v>
+        <v>44286</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1009,7 +1015,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="13">
-        <v>44286</v>
+        <v>44293</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1023,7 +1029,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="13">
-        <v>44293</v>
+        <v>44300</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1044,7 +1050,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="13">
-        <v>44300</v>
+        <v>44307</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>36</v>
@@ -1062,7 +1068,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="16">
-        <v>44307</v>
+        <v>44314</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>35</v>
